--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1667.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1667.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6913850686652936</v>
+        <v>3.764364242553711</v>
       </c>
       <c r="B1">
-        <v>2.988347793742059</v>
+        <v>2.531865358352661</v>
       </c>
       <c r="C1">
-        <v>2.702542493514878</v>
+        <v>1.903707504272461</v>
       </c>
       <c r="D1">
-        <v>2.495953356949506</v>
+        <v>1.798515558242798</v>
       </c>
       <c r="E1">
-        <v>2.146182795724421</v>
+        <v>1.896444082260132</v>
       </c>
     </row>
   </sheetData>
